--- a/mmn11/maman11_data_raw.xlsx
+++ b/mmn11/maman11_data_raw.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365openu-my.sharepoint.com/personal/bedotan5_365_openu_ac_il/Documents/School/2023b/20595 data mining/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Uni\OPU\2023b\Data Minig\Data Mining assignments\Data_Mining_MMNs\mmn11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{70DB25B9-7C1A-43BF-8247-924DCA719D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0572717B-34F5-4323-9853-91799D09360E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B0887-B6AB-4503-A2C2-DBA4167106F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{58DE40A6-4A11-4F85-A204-1839F861385B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" xr2:uid="{58DE40A6-4A11-4F85-A204-1839F861385B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,50 +39,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">מספר </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שם </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">לידה </t>
-  </si>
-  <si>
     <t>Birth</t>
   </si>
   <si>
-    <t>בעל יכולת לעוף</t>
-  </si>
-  <si>
     <t>Flight</t>
   </si>
   <si>
-    <t>סביבת החיים במים</t>
-  </si>
-  <si>
     <t>Aquatic</t>
   </si>
   <si>
-    <t>בעל רגליים</t>
-  </si>
-  <si>
     <t>Legs</t>
   </si>
   <si>
-    <t xml:space="preserve">משפחה </t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
-    <t>{R, F, M, A, B}</t>
-  </si>
-  <si>
     <t xml:space="preserve">נחש פיתון </t>
   </si>
   <si>
@@ -159,9 +135,6 @@
   </si>
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>ביצים</t>
   </si>
   <si>
     <t>Egg</t>
@@ -204,18 +177,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -245,13 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -568,446 +531,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7C9AC0-F4B8-407E-9F48-847DBA27E079}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I13" xr:uid="{FB7C9AC0-F4B8-407E-9F48-847DBA27E079}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="לא"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I13">
-      <sortCondition ref="A2:A13"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
